--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966711.1778576691</v>
+        <v>890838.5134527414</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>431491.382910917</v>
+        <v>431491.3829109173</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12084479.7604139</v>
+        <v>12084479.76041391</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>112.3289263072337</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="E3" t="n">
-        <v>30.1869182094078</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>21.01913349151777</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,76 +1132,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>94.81546390464592</v>
       </c>
       <c r="G9" t="n">
-        <v>85.77242146744733</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>318.5603213817265</v>
       </c>
       <c r="G11" t="n">
-        <v>366.9676661910356</v>
+        <v>414.4837081715351</v>
       </c>
       <c r="H11" t="n">
         <v>331.0869178506238</v>
@@ -1463,7 +1463,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.905297830925</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>19.43409279463135</v>
+        <v>198.3983972633722</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9125518617455</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1514,7 +1514,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>115.8159347655569</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1542,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>39.30421660832147</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>158.9607559314126</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>144.4021047498582</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>67.38482253818417</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>123.7529098367826</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2989899909938</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>216.3634831570758</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>331.0869178506238</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>98.42076593623696</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.5105486125224</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2801305603485</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>367.771137782254</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>14.24357399576426</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.905297830925</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>38.87981968862112</v>
+        <v>108.0031680536329</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>225.9125518617455</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>123.5289014911854</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.66360464806522</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>160.7742744190617</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>217.6140207606494</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>333.9462750314065</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>190.3564384189606</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.5105486125224</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>214.8345765314173</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>29.27633250189738</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>136.905297830925</v>
       </c>
       <c r="H18" t="n">
-        <v>108.0031680536329</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>74.30881812140657</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,13 +1976,13 @@
         <v>163.5434392080944</v>
       </c>
       <c r="T18" t="n">
-        <v>198.3983972633722</v>
+        <v>171.1639734198273</v>
       </c>
       <c r="U18" t="n">
         <v>225.9125518617455</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>26.63252699068746</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.39827731939936</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>160.7742744190617</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>118.1968891582759</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>328.3234833631898</v>
       </c>
       <c r="G20" t="n">
-        <v>414.4837081715351</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>263.736240375685</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2168,19 +2168,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.905297830925</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>74.30881812140657</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>72.94979525863035</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>163.5434392080944</v>
       </c>
       <c r="T21" t="n">
-        <v>90.01960357195672</v>
+        <v>137.7366254336917</v>
       </c>
       <c r="U21" t="n">
         <v>225.9125518617455</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2989899909938</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>123.7529098367825</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>191.4672464756815</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>80.36913259236705</v>
+        <v>205.0387455160869</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2411,7 +2411,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H24" t="n">
         <v>104.3883541553076</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>11.67884460201109</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>240.6235099003704</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>273.0469419507083</v>
       </c>
       <c r="Y26" t="n">
-        <v>224.7964953282034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>94.63926978364033</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.1609600883621</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,10 +2797,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>198.1975981129165</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>93.10689618710045</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2955,25 +2955,25 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>70.80276983270106</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2994,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.3197306044666</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>121.2900637650487</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>300.7782944824654</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="Y34" t="n">
-        <v>155.2114886365808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>290.5286403308938</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>32.25400731353546</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3423,31 +3423,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>18.3768222575565</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>166.0588731052221</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>22.02087812852552</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3593,13 +3593,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I39" t="n">
         <v>61.42221998250818</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>155.2114886365804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>289.9093286709409</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>333.910020732437</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>155.2114886365804</v>
+        <v>94.63926978364032</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4024,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>161.2398232196976</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>317.1659952951773</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
         <v>61.42221998250819</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>196.7218456862862</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>213.6113417665672</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>132.7447050367114</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>376.1934816808115</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>487.2836868729568</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C3" t="n">
-        <v>312.8306575918298</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D3" t="n">
-        <v>163.8962479305785</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>487.2836868729568</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V3" t="n">
-        <v>487.2836868729568</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W3" t="n">
-        <v>487.2836868729568</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X3" t="n">
-        <v>487.2836868729568</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y3" t="n">
-        <v>487.2836868729568</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4527,13 +4527,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>710.516763498309</v>
+      </c>
+      <c r="C5" t="n">
+        <v>710.516763498309</v>
+      </c>
+      <c r="D5" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E5" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F5" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G5" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C5" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E5" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F5" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G5" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.38115216564972</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>439.147110064363</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H6" t="n">
         <v>19.28114311021272</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4679,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>257.2326523711826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>49.38115216564972</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>49.38115216564972</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4764,13 +4764,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>735.8335372470253</v>
+        <v>115.0543389734914</v>
       </c>
       <c r="C9" t="n">
-        <v>561.3805079658983</v>
+        <v>115.0543389734914</v>
       </c>
       <c r="D9" t="n">
-        <v>412.4460983046471</v>
+        <v>115.0543389734914</v>
       </c>
       <c r="E9" t="n">
-        <v>253.2086432991916</v>
+        <v>115.0543389734914</v>
       </c>
       <c r="F9" t="n">
-        <v>106.6740853260766</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4895,10 +4895,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V9" t="n">
-        <v>735.8335372470253</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W9" t="n">
-        <v>735.8335372470253</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X9" t="n">
-        <v>735.8335372470253</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="Y9" t="n">
-        <v>735.8335372470253</v>
+        <v>283.2696759935595</v>
       </c>
     </row>
     <row r="10">
@@ -4953,16 +4953,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1111.839735538093</v>
+        <v>1498.439575602214</v>
       </c>
       <c r="C11" t="n">
-        <v>742.8772185976811</v>
+        <v>1498.439575602214</v>
       </c>
       <c r="D11" t="n">
-        <v>742.8772185976811</v>
+        <v>1498.439575602214</v>
       </c>
       <c r="E11" t="n">
-        <v>742.8772185976811</v>
+        <v>1112.65132300397</v>
       </c>
       <c r="F11" t="n">
-        <v>742.8772185976811</v>
+        <v>790.8732205981856</v>
       </c>
       <c r="G11" t="n">
         <v>372.2028083037058</v>
       </c>
       <c r="H11" t="n">
-        <v>37.77157815156053</v>
+        <v>37.77157815156052</v>
       </c>
       <c r="I11" t="n">
-        <v>37.77157815156053</v>
+        <v>37.77157815156052</v>
       </c>
       <c r="J11" t="n">
-        <v>94.76073252434992</v>
+        <v>94.76073252434986</v>
       </c>
       <c r="K11" t="n">
-        <v>300.9175062625697</v>
+        <v>300.9175062625696</v>
       </c>
       <c r="L11" t="n">
-        <v>608.9498412559818</v>
+        <v>608.9498412559817</v>
       </c>
       <c r="M11" t="n">
-        <v>968.3017108859933</v>
+        <v>968.3017108859932</v>
       </c>
       <c r="N11" t="n">
         <v>1318.836271911618</v>
@@ -5086,7 +5086,7 @@
         <v>1888.578907578026</v>
       </c>
       <c r="Y11" t="n">
-        <v>1498.439575602215</v>
+        <v>1498.439575602214</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>567.5374130352274</v>
+        <v>705.8255926624245</v>
       </c>
       <c r="C12" t="n">
-        <v>567.5374130352274</v>
+        <v>705.8255926624245</v>
       </c>
       <c r="D12" t="n">
-        <v>418.6030033739761</v>
+        <v>556.8911830011732</v>
       </c>
       <c r="E12" t="n">
-        <v>259.3655483685206</v>
+        <v>397.6537279957176</v>
       </c>
       <c r="F12" t="n">
-        <v>112.8309903954056</v>
+        <v>251.1191700226026</v>
       </c>
       <c r="G12" t="n">
-        <v>112.8309903954056</v>
+        <v>112.8309903954055</v>
       </c>
       <c r="H12" t="n">
-        <v>112.8309903954056</v>
+        <v>112.8309903954055</v>
       </c>
       <c r="I12" t="n">
-        <v>37.77157815156053</v>
+        <v>37.77157815156052</v>
       </c>
       <c r="J12" t="n">
-        <v>78.02054839819863</v>
+        <v>37.77157815156052</v>
       </c>
       <c r="K12" t="n">
-        <v>78.02054839819863</v>
+        <v>233.1843221795349</v>
       </c>
       <c r="L12" t="n">
-        <v>402.1814944610675</v>
+        <v>557.3452682424038</v>
       </c>
       <c r="M12" t="n">
-        <v>832.4412504726885</v>
+        <v>987.6050242540247</v>
       </c>
       <c r="N12" t="n">
-        <v>1271.117258716364</v>
+        <v>1444.959489116869</v>
       </c>
       <c r="O12" t="n">
-        <v>1623.091564367483</v>
+        <v>1796.933794767988</v>
       </c>
       <c r="P12" t="n">
         <v>1888.578907578026</v>
@@ -5150,22 +5150,22 @@
         <v>1888.578907578026</v>
       </c>
       <c r="T12" t="n">
-        <v>1868.948510815772</v>
+        <v>1688.176486099872</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.754013985726</v>
+        <v>1688.176486099872</v>
       </c>
       <c r="V12" t="n">
-        <v>1405.601905753984</v>
+        <v>1453.02437786813</v>
       </c>
       <c r="W12" t="n">
-        <v>1151.364549025782</v>
+        <v>1198.787021139928</v>
       </c>
       <c r="X12" t="n">
-        <v>943.5130488202492</v>
+        <v>1081.801228447446</v>
       </c>
       <c r="Y12" t="n">
-        <v>735.7527500552953</v>
+        <v>874.0409296824926</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>451.9654163614358</v>
+        <v>37.77157815156052</v>
       </c>
       <c r="C13" t="n">
-        <v>451.9654163614358</v>
+        <v>37.77157815156052</v>
       </c>
       <c r="D13" t="n">
-        <v>451.9654163614358</v>
+        <v>37.77157815156052</v>
       </c>
       <c r="E13" t="n">
-        <v>451.9654163614358</v>
+        <v>37.77157815156052</v>
       </c>
       <c r="F13" t="n">
-        <v>451.9654163614358</v>
+        <v>37.77157815156052</v>
       </c>
       <c r="G13" t="n">
-        <v>412.2641874641413</v>
+        <v>37.77157815156052</v>
       </c>
       <c r="H13" t="n">
-        <v>251.6977673314013</v>
+        <v>37.77157815156052</v>
       </c>
       <c r="I13" t="n">
-        <v>105.8370554628577</v>
+        <v>37.77157815156052</v>
       </c>
       <c r="J13" t="n">
-        <v>37.77157815156053</v>
+        <v>37.77157815156052</v>
       </c>
       <c r="K13" t="n">
-        <v>57.98179126766718</v>
+        <v>57.98179126766716</v>
       </c>
       <c r="L13" t="n">
-        <v>139.3703405264046</v>
+        <v>139.3703405264045</v>
       </c>
       <c r="M13" t="n">
-        <v>235.572277297593</v>
+        <v>235.5722772975929</v>
       </c>
       <c r="N13" t="n">
-        <v>334.9213634561169</v>
+        <v>334.9213634561168</v>
       </c>
       <c r="O13" t="n">
-        <v>410.6700291245814</v>
+        <v>410.6700291245813</v>
       </c>
       <c r="P13" t="n">
-        <v>451.9654163614358</v>
+        <v>451.9654163614356</v>
       </c>
       <c r="Q13" t="n">
-        <v>451.9654163614358</v>
+        <v>451.9654163614356</v>
       </c>
       <c r="R13" t="n">
-        <v>451.9654163614358</v>
+        <v>451.9654163614356</v>
       </c>
       <c r="S13" t="n">
-        <v>451.9654163614358</v>
+        <v>451.9654163614356</v>
       </c>
       <c r="T13" t="n">
-        <v>451.9654163614358</v>
+        <v>326.9624771323623</v>
       </c>
       <c r="U13" t="n">
-        <v>451.9654163614358</v>
+        <v>37.77157815156052</v>
       </c>
       <c r="V13" t="n">
-        <v>451.9654163614358</v>
+        <v>37.77157815156052</v>
       </c>
       <c r="W13" t="n">
-        <v>451.9654163614358</v>
+        <v>37.77157815156052</v>
       </c>
       <c r="X13" t="n">
-        <v>451.9654163614358</v>
+        <v>37.77157815156052</v>
       </c>
       <c r="Y13" t="n">
-        <v>451.9654163614358</v>
+        <v>37.77157815156052</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>256.3205510374957</v>
+        <v>1126.953577842362</v>
       </c>
       <c r="C14" t="n">
-        <v>256.3205510374957</v>
+        <v>757.99106090195</v>
       </c>
       <c r="D14" t="n">
-        <v>256.3205510374957</v>
+        <v>757.99106090195</v>
       </c>
       <c r="E14" t="n">
-        <v>37.77157815156052</v>
+        <v>372.2028083037058</v>
       </c>
       <c r="F14" t="n">
-        <v>37.77157815156052</v>
+        <v>372.2028083037058</v>
       </c>
       <c r="G14" t="n">
-        <v>37.77157815156052</v>
+        <v>372.2028083037058</v>
       </c>
       <c r="H14" t="n">
         <v>37.77157815156052</v>
@@ -5281,13 +5281,13 @@
         <v>94.76073252434981</v>
       </c>
       <c r="K14" t="n">
-        <v>300.9175062625698</v>
+        <v>300.9175062625696</v>
       </c>
       <c r="L14" t="n">
-        <v>608.9498412559819</v>
+        <v>608.9498412559817</v>
       </c>
       <c r="M14" t="n">
-        <v>968.3017108859934</v>
+        <v>968.3017108859931</v>
       </c>
       <c r="N14" t="n">
         <v>1318.836271911618</v>
@@ -5302,28 +5302,28 @@
         <v>1888.578907578026</v>
       </c>
       <c r="R14" t="n">
-        <v>1789.163992490918</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="S14" t="n">
-        <v>1789.163992490918</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="T14" t="n">
-        <v>1567.436165609582</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="U14" t="n">
-        <v>1313.61785191226</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="V14" t="n">
-        <v>982.5549645686898</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="W14" t="n">
-        <v>629.7863092985756</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="X14" t="n">
-        <v>256.3205510374957</v>
+        <v>1517.092909818173</v>
       </c>
       <c r="Y14" t="n">
-        <v>256.3205510374957</v>
+        <v>1126.953577842362</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>389.7853321999059</v>
+        <v>456.7221034115806</v>
       </c>
       <c r="C15" t="n">
-        <v>215.3323029187789</v>
+        <v>456.7221034115806</v>
       </c>
       <c r="D15" t="n">
-        <v>215.3323029187789</v>
+        <v>307.7876937503293</v>
       </c>
       <c r="E15" t="n">
-        <v>215.3323029187789</v>
+        <v>293.4002452697594</v>
       </c>
       <c r="F15" t="n">
-        <v>215.3323029187789</v>
+        <v>146.8656872966443</v>
       </c>
       <c r="G15" t="n">
-        <v>77.04412329158185</v>
+        <v>146.8656872966443</v>
       </c>
       <c r="H15" t="n">
         <v>37.77157815156052</v>
@@ -5357,22 +5357,22 @@
         <v>37.77157815156052</v>
       </c>
       <c r="J15" t="n">
-        <v>78.02054839819861</v>
+        <v>37.77157815156052</v>
       </c>
       <c r="K15" t="n">
-        <v>273.4332924261731</v>
+        <v>59.34209177902977</v>
       </c>
       <c r="L15" t="n">
-        <v>597.5942384890419</v>
+        <v>383.5030378418986</v>
       </c>
       <c r="M15" t="n">
-        <v>1027.853994500663</v>
+        <v>813.7627938535195</v>
       </c>
       <c r="N15" t="n">
-        <v>1485.208459363507</v>
+        <v>1271.117258716364</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.182765014626</v>
+        <v>1623.091564367483</v>
       </c>
       <c r="P15" t="n">
         <v>1888.578907578026</v>
@@ -5393,16 +5393,16 @@
         <v>1294.786596130337</v>
       </c>
       <c r="V15" t="n">
-        <v>1059.634487898594</v>
+        <v>1294.786596130337</v>
       </c>
       <c r="W15" t="n">
-        <v>805.3971311703926</v>
+        <v>1040.549239402135</v>
       </c>
       <c r="X15" t="n">
-        <v>597.5456309648598</v>
+        <v>832.6977391966025</v>
       </c>
       <c r="Y15" t="n">
-        <v>389.7853321999059</v>
+        <v>624.9374404316486</v>
       </c>
     </row>
     <row r="16">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.77157815156052</v>
+        <v>162.548246324475</v>
       </c>
       <c r="C16" t="n">
-        <v>37.77157815156052</v>
+        <v>162.548246324475</v>
       </c>
       <c r="D16" t="n">
         <v>37.77157815156052</v>
@@ -5457,31 +5457,31 @@
         <v>451.9654163614356</v>
       </c>
       <c r="Q16" t="n">
-        <v>419.9819773229859</v>
+        <v>451.9654163614356</v>
       </c>
       <c r="R16" t="n">
-        <v>257.5837203340347</v>
+        <v>451.9654163614356</v>
       </c>
       <c r="S16" t="n">
-        <v>37.77157815156052</v>
+        <v>451.9654163614356</v>
       </c>
       <c r="T16" t="n">
-        <v>37.77157815156052</v>
+        <v>451.9654163614356</v>
       </c>
       <c r="U16" t="n">
-        <v>37.77157815156052</v>
+        <v>451.9654163614356</v>
       </c>
       <c r="V16" t="n">
-        <v>37.77157815156052</v>
+        <v>451.9654163614356</v>
       </c>
       <c r="W16" t="n">
-        <v>37.77157815156052</v>
+        <v>162.548246324475</v>
       </c>
       <c r="X16" t="n">
-        <v>37.77157815156052</v>
+        <v>162.548246324475</v>
       </c>
       <c r="Y16" t="n">
-        <v>37.77157815156052</v>
+        <v>162.548246324475</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1204.747364964341</v>
+        <v>867.427895235648</v>
       </c>
       <c r="C17" t="n">
-        <v>1204.747364964341</v>
+        <v>867.427895235648</v>
       </c>
       <c r="D17" t="n">
         <v>867.427895235648</v>
@@ -5518,10 +5518,10 @@
         <v>94.76073252434981</v>
       </c>
       <c r="K17" t="n">
-        <v>300.9175062625696</v>
+        <v>300.9175062625695</v>
       </c>
       <c r="L17" t="n">
-        <v>608.9498412559817</v>
+        <v>608.9498412559816</v>
       </c>
       <c r="M17" t="n">
         <v>968.3017108859931</v>
@@ -5542,25 +5542,25 @@
         <v>1888.578907578026</v>
       </c>
       <c r="S17" t="n">
-        <v>1888.578907578026</v>
+        <v>1696.299676851803</v>
       </c>
       <c r="T17" t="n">
-        <v>1888.578907578026</v>
+        <v>1474.571849970467</v>
       </c>
       <c r="U17" t="n">
-        <v>1888.578907578026</v>
+        <v>1257.56722721146</v>
       </c>
       <c r="V17" t="n">
-        <v>1557.516020234455</v>
+        <v>1257.56722721146</v>
       </c>
       <c r="W17" t="n">
-        <v>1204.747364964341</v>
+        <v>1257.56722721146</v>
       </c>
       <c r="X17" t="n">
-        <v>1204.747364964341</v>
+        <v>1257.56722721146</v>
       </c>
       <c r="Y17" t="n">
-        <v>1204.747364964341</v>
+        <v>867.427895235648</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>389.7853321999059</v>
+        <v>484.2316224454643</v>
       </c>
       <c r="C18" t="n">
-        <v>389.7853321999059</v>
+        <v>484.2316224454643</v>
       </c>
       <c r="D18" t="n">
-        <v>389.7853321999059</v>
+        <v>335.2972127842131</v>
       </c>
       <c r="E18" t="n">
-        <v>389.7853321999059</v>
+        <v>176.0597577787576</v>
       </c>
       <c r="F18" t="n">
-        <v>360.2132791676863</v>
+        <v>176.0597577787576</v>
       </c>
       <c r="G18" t="n">
-        <v>221.9250995404893</v>
+        <v>37.77157815156052</v>
       </c>
       <c r="H18" t="n">
-        <v>112.8309903954055</v>
+        <v>37.77157815156052</v>
       </c>
       <c r="I18" t="n">
         <v>37.77157815156052</v>
       </c>
       <c r="J18" t="n">
-        <v>78.02054839819861</v>
+        <v>78.0205483981986</v>
       </c>
       <c r="K18" t="n">
-        <v>273.4332924261731</v>
+        <v>273.433292426173</v>
       </c>
       <c r="L18" t="n">
-        <v>597.5942384890419</v>
+        <v>597.5942384890418</v>
       </c>
       <c r="M18" t="n">
         <v>1027.853994500663</v>
@@ -5609,10 +5609,10 @@
         <v>1485.208459363507</v>
       </c>
       <c r="O18" t="n">
-        <v>1498.318075624454</v>
+        <v>1837.182765014626</v>
       </c>
       <c r="P18" t="n">
-        <v>1763.805418834997</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="Q18" t="n">
         <v>1888.578907578026</v>
@@ -5624,22 +5624,22 @@
         <v>1723.383514438537</v>
       </c>
       <c r="T18" t="n">
-        <v>1522.981092960383</v>
+        <v>1550.490611994267</v>
       </c>
       <c r="U18" t="n">
-        <v>1294.786596130337</v>
+        <v>1322.296115164221</v>
       </c>
       <c r="V18" t="n">
-        <v>1059.634487898594</v>
+        <v>1322.296115164221</v>
       </c>
       <c r="W18" t="n">
-        <v>805.3971311703926</v>
+        <v>1068.058758436019</v>
       </c>
       <c r="X18" t="n">
-        <v>597.5456309648598</v>
+        <v>860.2072582304863</v>
       </c>
       <c r="Y18" t="n">
-        <v>389.7853321999059</v>
+        <v>652.4469594655324</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>233.6093034943032</v>
+        <v>332.574619231864</v>
       </c>
       <c r="C19" t="n">
-        <v>64.67312056639634</v>
+        <v>332.574619231864</v>
       </c>
       <c r="D19" t="n">
-        <v>64.67312056639634</v>
+        <v>332.574619231864</v>
       </c>
       <c r="E19" t="n">
-        <v>37.77157815156052</v>
+        <v>184.6615256494709</v>
       </c>
       <c r="F19" t="n">
         <v>37.77157815156052</v>
@@ -5676,16 +5676,16 @@
         <v>37.77157815156052</v>
       </c>
       <c r="K19" t="n">
-        <v>57.98179126766716</v>
+        <v>57.98179126766715</v>
       </c>
       <c r="L19" t="n">
         <v>139.3703405264045</v>
       </c>
       <c r="M19" t="n">
-        <v>235.5722772975929</v>
+        <v>235.5722772975928</v>
       </c>
       <c r="N19" t="n">
-        <v>334.9213634561168</v>
+        <v>334.9213634561167</v>
       </c>
       <c r="O19" t="n">
         <v>410.6700291245813</v>
@@ -5694,31 +5694,31 @@
         <v>451.9654163614356</v>
       </c>
       <c r="Q19" t="n">
-        <v>396.0075604832545</v>
+        <v>451.9654163614356</v>
       </c>
       <c r="R19" t="n">
-        <v>233.6093034943032</v>
+        <v>451.9654163614356</v>
       </c>
       <c r="S19" t="n">
-        <v>233.6093034943032</v>
+        <v>451.9654163614356</v>
       </c>
       <c r="T19" t="n">
-        <v>233.6093034943032</v>
+        <v>451.9654163614356</v>
       </c>
       <c r="U19" t="n">
-        <v>233.6093034943032</v>
+        <v>451.9654163614356</v>
       </c>
       <c r="V19" t="n">
-        <v>233.6093034943032</v>
+        <v>451.9654163614356</v>
       </c>
       <c r="W19" t="n">
-        <v>233.6093034943032</v>
+        <v>332.574619231864</v>
       </c>
       <c r="X19" t="n">
-        <v>233.6093034943032</v>
+        <v>332.574619231864</v>
       </c>
       <c r="Y19" t="n">
-        <v>233.6093034943032</v>
+        <v>332.574619231864</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1622.178664774304</v>
+        <v>738.3739772770125</v>
       </c>
       <c r="C20" t="n">
-        <v>1253.216147833892</v>
+        <v>369.4114603366008</v>
       </c>
       <c r="D20" t="n">
-        <v>1253.216147833892</v>
+        <v>369.4114603366008</v>
       </c>
       <c r="E20" t="n">
-        <v>867.427895235648</v>
+        <v>369.4114603366008</v>
       </c>
       <c r="F20" t="n">
-        <v>456.4419904460404</v>
+        <v>37.77157815156052</v>
       </c>
       <c r="G20" t="n">
         <v>37.77157815156052</v>
@@ -5752,16 +5752,16 @@
         <v>37.77157815156052</v>
       </c>
       <c r="J20" t="n">
-        <v>94.76073252434992</v>
+        <v>94.76073252434983</v>
       </c>
       <c r="K20" t="n">
-        <v>300.9175062625698</v>
+        <v>300.9175062625695</v>
       </c>
       <c r="L20" t="n">
-        <v>608.9498412559818</v>
+        <v>608.9498412559817</v>
       </c>
       <c r="M20" t="n">
-        <v>968.3017108859934</v>
+        <v>968.3017108859931</v>
       </c>
       <c r="N20" t="n">
         <v>1318.836271911618</v>
@@ -5788,16 +5788,16 @@
         <v>1888.578907578026</v>
       </c>
       <c r="V20" t="n">
-        <v>1622.178664774304</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="W20" t="n">
-        <v>1622.178664774304</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="X20" t="n">
-        <v>1622.178664774304</v>
+        <v>1515.113149316946</v>
       </c>
       <c r="Y20" t="n">
-        <v>1622.178664774304</v>
+        <v>1124.973817341134</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>425.5721993037296</v>
+        <v>517.996620411258</v>
       </c>
       <c r="C21" t="n">
-        <v>251.1191700226026</v>
+        <v>343.5435911301311</v>
       </c>
       <c r="D21" t="n">
-        <v>251.1191700226026</v>
+        <v>343.5435911301311</v>
       </c>
       <c r="E21" t="n">
-        <v>251.1191700226026</v>
+        <v>184.3061361246756</v>
       </c>
       <c r="F21" t="n">
-        <v>251.1191700226026</v>
+        <v>37.77157815156052</v>
       </c>
       <c r="G21" t="n">
-        <v>112.8309903954055</v>
+        <v>37.77157815156052</v>
       </c>
       <c r="H21" t="n">
-        <v>112.8309903954055</v>
+        <v>37.77157815156052</v>
       </c>
       <c r="I21" t="n">
         <v>37.77157815156052</v>
@@ -5834,49 +5834,49 @@
         <v>78.0205483981986</v>
       </c>
       <c r="K21" t="n">
-        <v>78.0205483981986</v>
+        <v>258.7295490988689</v>
       </c>
       <c r="L21" t="n">
-        <v>402.1814944610675</v>
+        <v>258.7295490988689</v>
       </c>
       <c r="M21" t="n">
-        <v>832.4412504726884</v>
+        <v>688.9893051104898</v>
       </c>
       <c r="N21" t="n">
-        <v>1289.795715335533</v>
+        <v>1146.343769973334</v>
       </c>
       <c r="O21" t="n">
-        <v>1641.770020986652</v>
+        <v>1498.318075624453</v>
       </c>
       <c r="P21" t="n">
-        <v>1888.578907578026</v>
+        <v>1763.805418834996</v>
       </c>
       <c r="Q21" t="n">
         <v>1888.578907578026</v>
       </c>
       <c r="R21" t="n">
-        <v>1814.892245700622</v>
+        <v>1888.578907578026</v>
       </c>
       <c r="S21" t="n">
-        <v>1649.696852561132</v>
+        <v>1723.383514438537</v>
       </c>
       <c r="T21" t="n">
-        <v>1558.767960064206</v>
+        <v>1584.25560996006</v>
       </c>
       <c r="U21" t="n">
-        <v>1330.57346323416</v>
+        <v>1356.061113130014</v>
       </c>
       <c r="V21" t="n">
-        <v>1095.421355002418</v>
+        <v>1356.061113130014</v>
       </c>
       <c r="W21" t="n">
-        <v>841.1839982742163</v>
+        <v>1101.823756401813</v>
       </c>
       <c r="X21" t="n">
-        <v>633.3324980686834</v>
+        <v>893.9722561962799</v>
       </c>
       <c r="Y21" t="n">
-        <v>425.5721993037296</v>
+        <v>686.211957431326</v>
       </c>
     </row>
     <row r="22">
@@ -5943,16 +5943,16 @@
         <v>451.9654163614356</v>
       </c>
       <c r="U22" t="n">
-        <v>162.7745173806338</v>
+        <v>451.9654163614356</v>
       </c>
       <c r="V22" t="n">
-        <v>37.77157815156052</v>
+        <v>451.9654163614356</v>
       </c>
       <c r="W22" t="n">
-        <v>37.77157815156052</v>
+        <v>258.5641572950906</v>
       </c>
       <c r="X22" t="n">
-        <v>37.77157815156052</v>
+        <v>258.5641572950906</v>
       </c>
       <c r="Y22" t="n">
         <v>37.77157815156052</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>464.928886609972</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C23" t="n">
-        <v>464.928886609972</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D23" t="n">
-        <v>464.928886609972</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E23" t="n">
-        <v>464.928886609972</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533141</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.48357412947</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W23" t="n">
-        <v>1309.714918859356</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X23" t="n">
-        <v>936.2491605982757</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y23" t="n">
-        <v>546.109828622464</v>
+        <v>1998.219284210995</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6107,10 +6107,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>485.0749338020197</v>
+        <v>65.73979454966857</v>
       </c>
       <c r="C25" t="n">
-        <v>485.0749338020197</v>
+        <v>65.73979454966857</v>
       </c>
       <c r="D25" t="n">
-        <v>485.0749338020197</v>
+        <v>65.73979454966857</v>
       </c>
       <c r="E25" t="n">
-        <v>337.1618402196266</v>
+        <v>65.73979454966857</v>
       </c>
       <c r="F25" t="n">
-        <v>190.2718927217162</v>
+        <v>65.73979454966857</v>
       </c>
       <c r="G25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6174,25 +6174,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V25" t="n">
-        <v>485.0749338020197</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W25" t="n">
-        <v>485.0749338020197</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X25" t="n">
-        <v>485.0749338020197</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.0749338020197</v>
+        <v>65.73979454966857</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1125.191652989356</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C26" t="n">
-        <v>1125.191652989356</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D26" t="n">
-        <v>766.9259543826058</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E26" t="n">
-        <v>381.1377017843616</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F26" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G26" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533141</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U26" t="n">
-        <v>2443.387305656314</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V26" t="n">
-        <v>2112.324418312743</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W26" t="n">
-        <v>2112.324418312743</v>
+        <v>1485.892406545184</v>
       </c>
       <c r="X26" t="n">
-        <v>1738.858660051663</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="Y26" t="n">
-        <v>1511.791493053478</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="27">
@@ -6287,43 +6287,43 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F27" t="n">
         <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6411,25 +6411,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>308.6274700262513</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1199.13500546934</v>
+        <v>1194.534876920951</v>
       </c>
       <c r="C29" t="n">
-        <v>830.1724885289281</v>
+        <v>825.572359980539</v>
       </c>
       <c r="D29" t="n">
-        <v>471.9067899221776</v>
+        <v>825.572359980539</v>
       </c>
       <c r="E29" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036444</v>
@@ -6490,25 +6490,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T29" t="n">
-        <v>2603.101721132262</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U29" t="n">
-        <v>2349.339935770353</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V29" t="n">
-        <v>2349.339935770353</v>
+        <v>1971.274048960884</v>
       </c>
       <c r="W29" t="n">
-        <v>2349.339935770353</v>
+        <v>1971.274048960884</v>
       </c>
       <c r="X29" t="n">
-        <v>1975.874177509273</v>
+        <v>1971.274048960884</v>
       </c>
       <c r="Y29" t="n">
-        <v>1585.734845533462</v>
+        <v>1581.134716985072</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036444</v>
@@ -6545,46 +6545,46 @@
         <v>53.94298182036444</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641985</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2362.69689653384</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C31" t="n">
-        <v>2362.69689653384</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D31" t="n">
-        <v>2362.69689653384</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E31" t="n">
-        <v>2362.69689653384</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F31" t="n">
-        <v>2362.69689653384</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G31" t="n">
-        <v>2362.69689653384</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H31" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I31" t="n">
-        <v>2068.619613065018</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2519.585513306028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2362.69689653384</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>2362.69689653384</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>2362.69689653384</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>2362.69689653384</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>2362.69689653384</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>2362.69689653384</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y31" t="n">
-        <v>2362.69689653384</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>797.9969330253591</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="C32" t="n">
-        <v>797.9969330253591</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D32" t="n">
-        <v>439.7312344186087</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E32" t="n">
-        <v>53.94298182036444</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036444</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6730,22 +6730,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>2300.970518596487</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>1948.201863326372</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X32" t="n">
-        <v>1574.736105065293</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y32" t="n">
-        <v>1184.596773089481</v>
+        <v>1964.838184214438</v>
       </c>
     </row>
     <row r="33">
@@ -6755,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W34" t="n">
-        <v>2407.731920981261</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X34" t="n">
-        <v>2179.742370083244</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1336.435086552837</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C35" t="n">
-        <v>1336.435086552837</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D35" t="n">
-        <v>978.169387946087</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>978.169387946087</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>567.1834831564795</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>2113.174258592771</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>2113.174258592771</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y35" t="n">
-        <v>1723.034926616959</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C37" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D37" t="n">
-        <v>728.1289842064342</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E37" t="n">
-        <v>709.5665374816297</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>840.8693068625894</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="C38" t="n">
-        <v>471.9067899221776</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D38" t="n">
-        <v>471.9067899221776</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
         <v>471.9067899221776</v>
@@ -7180,13 +7180,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2674.905779777288</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2674.905779777288</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2674.905779777288</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U38" t="n">
-        <v>2674.905779777288</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V38" t="n">
-        <v>2343.842892433717</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W38" t="n">
-        <v>1991.074237163603</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X38" t="n">
-        <v>1617.608478902523</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="Y38" t="n">
-        <v>1227.469146926711</v>
+        <v>1794.6828813766</v>
       </c>
     </row>
     <row r="39">
@@ -7241,10 +7241,10 @@
         <v>505.8730812692492</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W40" t="n">
-        <v>2407.731920981262</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X40" t="n">
-        <v>2179.742370083244</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y40" t="n">
-        <v>2022.963088632153</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>764.7444956504007</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="C41" t="n">
-        <v>764.7444956504007</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="D41" t="n">
-        <v>764.7444956504007</v>
+        <v>809.1896391468615</v>
       </c>
       <c r="E41" t="n">
-        <v>471.9067899221776</v>
+        <v>809.1896391468615</v>
       </c>
       <c r="F41" t="n">
         <v>471.9067899221776</v>
@@ -7411,13 +7411,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>2212.181128500977</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V41" t="n">
-        <v>1881.118241157406</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W41" t="n">
-        <v>1528.349585887292</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X41" t="n">
-        <v>1154.883827626212</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y41" t="n">
-        <v>764.7444956504007</v>
+        <v>1167.455337753612</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
@@ -7505,10 +7505,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W43" t="n">
-        <v>2407.731920981262</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X43" t="n">
-        <v>2179.742370083244</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1210.087414675782</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="C44" t="n">
-        <v>1210.087414675782</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="D44" t="n">
-        <v>1210.087414675782</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="E44" t="n">
         <v>1210.087414675782</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T44" t="n">
-        <v>2534.280582715497</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2280.518797353589</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V44" t="n">
-        <v>1949.455910010018</v>
+        <v>1916.245359491377</v>
       </c>
       <c r="W44" t="n">
-        <v>1596.687254739904</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="X44" t="n">
-        <v>1596.687254739904</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="Y44" t="n">
-        <v>1596.687254739904</v>
+        <v>1595.875667274026</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7745,31 +7745,31 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022.963088632152</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632152</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632152</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632152</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632152</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>2498.440155981569</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>2498.440155981569</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>2243.755667775682</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W46" t="n">
-        <v>2243.755667775682</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X46" t="n">
-        <v>2243.755667775682</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y46" t="n">
-        <v>2022.963088632152</v>
+        <v>222.942782082032</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>357.7767872515269</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>357.7767872515269</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,13 +8543,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>85.4355098387542</v>
       </c>
       <c r="K12" t="n">
-        <v>67.07862688331146</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8780,16 +8780,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>460.4752464454029</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>142.8645561141742</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.04346072268807</v>
+        <v>84.0434607226881</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>85.4355098387542</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>88.86702448681578</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9023,7 +9023,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>102.2090306125197</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>84.0434607226881</v>
@@ -9257,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>51.57475423615089</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>102.2090306125194</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>84.04346072268811</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>67.0786268833115</v>
+        <v>249.6129710254027</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>43.40504625005626</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>299.5956407417868</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>84.04346072268811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,7 +10193,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11153,13 +11153,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11393,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>275.044284299266</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22549,13 +22549,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>252.9439654637738</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22594,13 +22594,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22628,13 +22628,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>12.03090554892191</v>
       </c>
       <c r="E3" t="n">
-        <v>127.4581622459932</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22643,13 +22643,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,19 +22676,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,10 +22786,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22798,10 +22798,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22840,19 +22840,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,25 +22862,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>142.9094900234331</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>136.6259469638832</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22919,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>298.3140538843193</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23065,13 +23065,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23080,16 +23080,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23099,22 +23099,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>50.25374848873795</v>
       </c>
       <c r="G9" t="n">
-        <v>51.5710956957633</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23153,16 +23153,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>88.31572435998493</v>
       </c>
       <c r="G11" t="n">
-        <v>47.51604198049944</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>98.42076593623693</v>
+        <v>98.42076593623696</v>
       </c>
       <c r="S11" t="n">
         <v>190.3564384189606</v>
@@ -23351,7 +23351,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.905297830925</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>108.0031680536329</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.94979525863033</v>
+        <v>72.94979525863035</v>
       </c>
       <c r="S12" t="n">
         <v>163.5434392080944</v>
       </c>
       <c r="T12" t="n">
-        <v>178.9643044687409</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9125518617455</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>89.95705043792059</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>128.3193743826905</v>
+        <v>167.623590991012</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>158.9607559314126</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>144.4021047498582</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>67.38482253818418</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.39827731939934</v>
+        <v>55.39827731939936</v>
       </c>
       <c r="R13" t="n">
-        <v>160.7742744190616</v>
+        <v>160.7742744190617</v>
       </c>
       <c r="S13" t="n">
         <v>217.6140207606494</v>
       </c>
       <c r="T13" t="n">
-        <v>226.3758391310088</v>
+        <v>102.6229292942262</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2989899909938</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23497,13 +23497,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>165.5668869151859</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23512,7 +23512,7 @@
         <v>414.4837081715351</v>
       </c>
       <c r="H14" t="n">
-        <v>331.0869178506238</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>178.9002608012674</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>98.42076593623696</v>
       </c>
       <c r="S14" t="n">
         <v>190.3564384189606</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.5105486125224</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2801305603485</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.959962896215018</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>143.4015064596367</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.905297830925</v>
       </c>
       <c r="H15" t="n">
-        <v>69.12334836501182</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>74.30881812140657</v>
@@ -23633,7 +23633,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>25.08657152702699</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.73467267133414</v>
+        <v>55.39827731939936</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>160.7742744190617</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>217.6140207606494</v>
       </c>
       <c r="T16" t="n">
         <v>226.3758391310088</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23737,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>20.7367665892765</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23782,25 +23782,25 @@
         <v>98.42076593623696</v>
       </c>
       <c r="S17" t="n">
-        <v>190.3564384189606</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.5105486125224</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2801305603485</v>
+        <v>36.44555402893121</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>115.7928798914865</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>108.0031680536329</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>74.30881812140657</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,13 +23864,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>27.2344238435449</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>119.8014356558817</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.623590991012</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>55.39827731939936</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>160.7742744190617</v>
       </c>
       <c r="S19" t="n">
         <v>217.6140207606494</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>168.3261091783152</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>78.5525623785216</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.4837081715351</v>
       </c>
       <c r="H20" t="n">
         <v>331.0869178506238</v>
@@ -24028,16 +24028,16 @@
         <v>251.2801305603485</v>
       </c>
       <c r="V20" t="n">
-        <v>64.01601809444992</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24056,19 +24056,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.905297830925</v>
       </c>
       <c r="H21" t="n">
         <v>108.0031680536329</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>74.30881812140657</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>72.94979525863035</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>108.3787936914155</v>
+        <v>60.6617718296805</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>226.3758391310088</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2989899909938</v>
       </c>
       <c r="V22" t="n">
-        <v>128.3847334870455</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>95.05575186090951</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>302.3647090711135</v>
+        <v>177.6950961473937</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>155.6309576570398</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
         <v>45.199959188537</v>
@@ -24414,16 +24414,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>11.51413342345765</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>96.68415872776075</v>
       </c>
       <c r="Y26" t="n">
-        <v>161.4414433278502</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>72.67053247541058</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24651,19 +24651,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>83.12091415361562</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,10 +24685,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>183.7327719593453</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24700,7 +24700,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>123.3414241705573</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24843,25 +24843,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>96.50703242634985</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>56.82580834555233</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24970,22 +24970,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>206.4621947050862</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>85.45964417358817</v>
       </c>
     </row>
     <row r="33">
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>69.82361682150338</v>
       </c>
       <c r="Y34" t="n">
-        <v>63.37316471551401</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>74.74425144011371</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>381.5301627072595</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
@@ -25216,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25311,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>128.0571403890127</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>199.2140186657854</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>32.45752444628619</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>72.6705324754106</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25605,7 +25605,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>63.37316471551443</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25633,13 +25633,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>92.02104140132093</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>72.9660250092744</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25842,7 +25842,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>63.37316471551443</v>
+        <v>123.9453835684545</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25912,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>55.20849713796017</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>32.07497342223576</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26076,22 +26076,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>28.31325977179807</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>12.09831362246999</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>440444.8720981748</v>
+        <v>440444.8720981747</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>609617.5687856254</v>
+        <v>609617.5687856253</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>755054.9746107858</v>
+        <v>755054.9746107857</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107858</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755054.9746107857</v>
+        <v>755054.9746107856</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157852.6389047657</v>
+        <v>157852.6389047658</v>
       </c>
       <c r="C2" t="n">
         <v>157852.6389047657</v>
@@ -26322,19 +26322,19 @@
         <v>157852.6389047657</v>
       </c>
       <c r="E2" t="n">
-        <v>220688.4257425819</v>
+        <v>220688.4257425818</v>
       </c>
       <c r="F2" t="n">
-        <v>220688.4257425819</v>
+        <v>220688.4257425818</v>
       </c>
       <c r="G2" t="n">
-        <v>220688.4257425819</v>
+        <v>220688.4257425818</v>
       </c>
       <c r="H2" t="n">
-        <v>220688.4257425819</v>
+        <v>220688.4257425818</v>
       </c>
       <c r="I2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="J2" t="n">
         <v>274694.9795149697</v>
@@ -26343,19 +26343,19 @@
         <v>274694.9795149697</v>
       </c>
       <c r="L2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="M2" t="n">
         <v>274694.9795149696</v>
       </c>
-      <c r="M2" t="n">
-        <v>274694.9795149697</v>
-      </c>
       <c r="N2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="O2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149699</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>184739.8879912181</v>
+        <v>184739.887991218</v>
       </c>
       <c r="J3" t="n">
         <v>63059.94259910623</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>57598.62967555047</v>
+        <v>57598.62967555039</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16914.68964098083</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
         <v>16914.68964098084</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11887.24896847548</v>
+        <v>-330.7616515649006</v>
       </c>
       <c r="C6" t="n">
-        <v>92656.68050002324</v>
+        <v>80438.66987998277</v>
       </c>
       <c r="D6" t="n">
-        <v>92656.68050002324</v>
+        <v>80438.66987998277</v>
       </c>
       <c r="E6" t="n">
-        <v>-62750.52748823398</v>
+        <v>-71661.39143259994</v>
       </c>
       <c r="F6" t="n">
-        <v>169940.0810783553</v>
+        <v>161029.2171339893</v>
       </c>
       <c r="G6" t="n">
-        <v>169940.0810783553</v>
+        <v>161029.2171339893</v>
       </c>
       <c r="H6" t="n">
-        <v>169940.0810783553</v>
+        <v>161029.2171339893</v>
       </c>
       <c r="I6" t="n">
-        <v>22494.68589067906</v>
+        <v>16426.27214485977</v>
       </c>
       <c r="J6" t="n">
-        <v>144174.6312827907</v>
+        <v>138106.2175369716</v>
       </c>
       <c r="K6" t="n">
-        <v>207234.573881897</v>
+        <v>201166.1601360778</v>
       </c>
       <c r="L6" t="n">
-        <v>207234.5738818969</v>
+        <v>201166.1601360778</v>
       </c>
       <c r="M6" t="n">
-        <v>149635.9442063466</v>
+        <v>143567.5304605273</v>
       </c>
       <c r="N6" t="n">
-        <v>207234.5738818971</v>
+        <v>201166.1601360779</v>
       </c>
       <c r="O6" t="n">
-        <v>207234.573881897</v>
+        <v>201166.1601360778</v>
       </c>
       <c r="P6" t="n">
-        <v>207234.573881897</v>
+        <v>201166.1601360779</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>203.733549220497</v>
+        <v>203.7335492204969</v>
       </c>
       <c r="F3" t="n">
         <v>203.7335492204969</v>
@@ -26798,31 +26798,31 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>472.1447268945066</v>
+        <v>472.1447268945065</v>
       </c>
       <c r="F4" t="n">
         <v>472.1447268945065</v>
       </c>
       <c r="G4" t="n">
-        <v>472.1447268945065</v>
+        <v>472.1447268945064</v>
       </c>
       <c r="H4" t="n">
-        <v>472.1447268945065</v>
+        <v>472.1447268945064</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>203.733549220497</v>
+        <v>203.7335492204969</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>231.1304380168475</v>
+        <v>231.1304380168474</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>202.1425458600491</v>
+        <v>202.142545860049</v>
       </c>
       <c r="J4" t="n">
         <v>241.0142888776591</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>231.1304380168475</v>
+        <v>231.1304380168472</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>231.1304380168475</v>
+        <v>231.1304380168474</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8190293435999872</v>
+        <v>0.8190293435999869</v>
       </c>
       <c r="H11" t="n">
-        <v>8.387884265143372</v>
+        <v>8.387884265143368</v>
       </c>
       <c r="I11" t="n">
-        <v>31.57562876913854</v>
+        <v>31.57562876913853</v>
       </c>
       <c r="J11" t="n">
-        <v>69.51409175136949</v>
+        <v>69.51409175136946</v>
       </c>
       <c r="K11" t="n">
-        <v>104.183603865957</v>
+        <v>104.1836038659569</v>
       </c>
       <c r="L11" t="n">
-        <v>129.2489731401551</v>
+        <v>129.248973140155</v>
       </c>
       <c r="M11" t="n">
-        <v>143.8143862294014</v>
+        <v>143.8143862294013</v>
       </c>
       <c r="N11" t="n">
-        <v>146.1414533519049</v>
+        <v>146.1414533519048</v>
       </c>
       <c r="O11" t="n">
-        <v>137.9972303164825</v>
+        <v>137.9972303164824</v>
       </c>
       <c r="P11" t="n">
-        <v>117.7774433963578</v>
+        <v>117.7774433963577</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.44595502868319</v>
+        <v>88.44595502868316</v>
       </c>
       <c r="R11" t="n">
-        <v>51.44835200491275</v>
+        <v>51.44835200491273</v>
       </c>
       <c r="S11" t="n">
-        <v>18.66363116728473</v>
+        <v>18.66363116728472</v>
       </c>
       <c r="T11" t="n">
-        <v>3.585300951608946</v>
+        <v>3.585300951608945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06552234748799897</v>
+        <v>0.06552234748799894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4382193322855973</v>
+        <v>0.4382193322855971</v>
       </c>
       <c r="H12" t="n">
-        <v>4.232276182863533</v>
+        <v>4.232276182863531</v>
       </c>
       <c r="I12" t="n">
-        <v>15.08781473000851</v>
+        <v>15.0878147300085</v>
       </c>
       <c r="J12" t="n">
-        <v>41.40211682791251</v>
+        <v>41.4021168279125</v>
       </c>
       <c r="K12" t="n">
-        <v>70.76281209104754</v>
+        <v>70.76281209104751</v>
       </c>
       <c r="L12" t="n">
-        <v>95.14933352981797</v>
+        <v>95.14933352981794</v>
       </c>
       <c r="M12" t="n">
         <v>111.0347843251708</v>
       </c>
       <c r="N12" t="n">
-        <v>113.9735446719458</v>
+        <v>113.9735446719457</v>
       </c>
       <c r="O12" t="n">
-        <v>104.2635268355123</v>
+        <v>104.2635268355122</v>
       </c>
       <c r="P12" t="n">
-        <v>83.68067232039621</v>
+        <v>83.68067232039618</v>
       </c>
       <c r="Q12" t="n">
-        <v>55.93831336333345</v>
+        <v>55.93831336333342</v>
       </c>
       <c r="R12" t="n">
-        <v>27.2080388940128</v>
+        <v>27.20803889401279</v>
       </c>
       <c r="S12" t="n">
-        <v>8.139731895743436</v>
+        <v>8.139731895743433</v>
       </c>
       <c r="T12" t="n">
-        <v>1.766331431449403</v>
+        <v>1.766331431449402</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02883021922931563</v>
+        <v>0.02883021922931561</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,46 +31910,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3673883674467978</v>
+        <v>0.3673883674467976</v>
       </c>
       <c r="H13" t="n">
-        <v>3.266416576026987</v>
+        <v>3.266416576026985</v>
       </c>
       <c r="I13" t="n">
-        <v>11.04837017740007</v>
+        <v>11.04837017740006</v>
       </c>
       <c r="J13" t="n">
-        <v>25.9743575784886</v>
+        <v>25.97435757848859</v>
       </c>
       <c r="K13" t="n">
-        <v>42.68384850881886</v>
+        <v>42.68384850881885</v>
       </c>
       <c r="L13" t="n">
-        <v>54.6206305565903</v>
+        <v>54.62063055659027</v>
       </c>
       <c r="M13" t="n">
-        <v>57.58979654441031</v>
+        <v>57.58979654441028</v>
       </c>
       <c r="N13" t="n">
-        <v>56.22043990210865</v>
+        <v>56.22043990210863</v>
       </c>
       <c r="O13" t="n">
-        <v>51.92867579148013</v>
+        <v>51.92867579148011</v>
       </c>
       <c r="P13" t="n">
-        <v>44.43395309556542</v>
+        <v>44.4339530955654</v>
       </c>
       <c r="Q13" t="n">
-        <v>30.76376593229504</v>
+        <v>30.76376593229503</v>
       </c>
       <c r="R13" t="n">
         <v>16.51911695810783</v>
       </c>
       <c r="S13" t="n">
-        <v>6.402577276322829</v>
+        <v>6.402577276322826</v>
       </c>
       <c r="T13" t="n">
-        <v>1.569750297272681</v>
+        <v>1.56975029727268</v>
       </c>
       <c r="U13" t="n">
         <v>0.02003936549709808</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8190293435999869</v>
+        <v>0.8190293435999868</v>
       </c>
       <c r="H17" t="n">
         <v>8.387884265143368</v>
@@ -32235,7 +32235,7 @@
         <v>31.57562876913853</v>
       </c>
       <c r="J17" t="n">
-        <v>69.51409175136946</v>
+        <v>69.51409175136945</v>
       </c>
       <c r="K17" t="n">
         <v>104.1836038659569</v>
@@ -32256,16 +32256,16 @@
         <v>117.7774433963577</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.44595502868316</v>
+        <v>88.44595502868314</v>
       </c>
       <c r="R17" t="n">
-        <v>51.44835200491273</v>
+        <v>51.44835200491272</v>
       </c>
       <c r="S17" t="n">
         <v>18.66363116728472</v>
       </c>
       <c r="T17" t="n">
-        <v>3.585300951608945</v>
+        <v>3.585300951608944</v>
       </c>
       <c r="U17" t="n">
         <v>0.06552234748799894</v>
@@ -32308,19 +32308,19 @@
         <v>0.4382193322855971</v>
       </c>
       <c r="H18" t="n">
-        <v>4.232276182863531</v>
+        <v>4.23227618286353</v>
       </c>
       <c r="I18" t="n">
         <v>15.0878147300085</v>
       </c>
       <c r="J18" t="n">
-        <v>41.4021168279125</v>
+        <v>41.40211682791249</v>
       </c>
       <c r="K18" t="n">
-        <v>70.76281209104751</v>
+        <v>70.76281209104749</v>
       </c>
       <c r="L18" t="n">
-        <v>95.14933352981794</v>
+        <v>95.14933352981792</v>
       </c>
       <c r="M18" t="n">
         <v>111.0347843251708</v>
@@ -32332,16 +32332,16 @@
         <v>104.2635268355122</v>
       </c>
       <c r="P18" t="n">
-        <v>83.68067232039618</v>
+        <v>83.68067232039617</v>
       </c>
       <c r="Q18" t="n">
-        <v>55.93831336333342</v>
+        <v>55.93831336333341</v>
       </c>
       <c r="R18" t="n">
-        <v>27.20803889401279</v>
+        <v>27.20803889401278</v>
       </c>
       <c r="S18" t="n">
-        <v>8.139731895743433</v>
+        <v>8.139731895743431</v>
       </c>
       <c r="T18" t="n">
         <v>1.766331431449402</v>
@@ -32396,37 +32396,37 @@
         <v>25.97435757848859</v>
       </c>
       <c r="K19" t="n">
-        <v>42.68384850881885</v>
+        <v>42.68384850881884</v>
       </c>
       <c r="L19" t="n">
-        <v>54.62063055659027</v>
+        <v>54.62063055659026</v>
       </c>
       <c r="M19" t="n">
         <v>57.58979654441028</v>
       </c>
       <c r="N19" t="n">
-        <v>56.22043990210863</v>
+        <v>56.22043990210862</v>
       </c>
       <c r="O19" t="n">
-        <v>51.92867579148011</v>
+        <v>51.9286757914801</v>
       </c>
       <c r="P19" t="n">
-        <v>44.4339530955654</v>
+        <v>44.43395309556539</v>
       </c>
       <c r="Q19" t="n">
         <v>30.76376593229503</v>
       </c>
       <c r="R19" t="n">
-        <v>16.51911695810783</v>
+        <v>16.51911695810782</v>
       </c>
       <c r="S19" t="n">
-        <v>6.402577276322826</v>
+        <v>6.402577276322825</v>
       </c>
       <c r="T19" t="n">
         <v>1.56975029727268</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02003936549709808</v>
+        <v>0.02003936549709807</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>226.4350751681936</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35263,13 +35263,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>57.56480239675697</v>
+        <v>57.56480239675695</v>
       </c>
       <c r="K11" t="n">
-        <v>208.2391653921412</v>
+        <v>208.2391653921411</v>
       </c>
       <c r="L11" t="n">
-        <v>311.1437727206183</v>
+        <v>311.1437727206182</v>
       </c>
       <c r="M11" t="n">
         <v>362.9816864949611</v>
@@ -35424,13 +35424,13 @@
         <v>354.0753141672981</v>
       </c>
       <c r="O11" t="n">
-        <v>288.6992001575411</v>
+        <v>288.699200157541</v>
       </c>
       <c r="P11" t="n">
-        <v>208.3431558125709</v>
+        <v>208.3431558125708</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.45525581413838</v>
+        <v>78.45525581413835</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>40.65552550165466</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>197.3866101292671</v>
       </c>
       <c r="L12" t="n">
-        <v>327.435299053403</v>
+        <v>327.4352990534029</v>
       </c>
       <c r="M12" t="n">
         <v>434.6058141531524</v>
       </c>
       <c r="N12" t="n">
-        <v>443.1070790340154</v>
+        <v>461.9742069321659</v>
       </c>
       <c r="O12" t="n">
-        <v>355.5296016677974</v>
+        <v>355.5296016677973</v>
       </c>
       <c r="P12" t="n">
-        <v>268.1690335460031</v>
+        <v>92.57082102024015</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>20.41435668293601</v>
+        <v>20.414356682936</v>
       </c>
       <c r="L13" t="n">
-        <v>82.21065581690644</v>
+        <v>82.21065581690641</v>
       </c>
       <c r="M13" t="n">
-        <v>97.17367350625091</v>
+        <v>97.17367350625088</v>
       </c>
       <c r="N13" t="n">
         <v>100.3526122813372</v>
       </c>
       <c r="O13" t="n">
-        <v>76.51380370551981</v>
+        <v>76.51380370551979</v>
       </c>
       <c r="P13" t="n">
-        <v>41.71251236045891</v>
+        <v>41.71251236045889</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>40.65552550165464</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>197.3866101292671</v>
+        <v>21.7883976035043</v>
       </c>
       <c r="L15" t="n">
         <v>327.4352990534029</v>
@@ -35743,7 +35743,7 @@
         <v>355.5296016677973</v>
       </c>
       <c r="P15" t="n">
-        <v>51.91529551858559</v>
+        <v>268.1690335460031</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>57.56480239675695</v>
+        <v>57.56480239675693</v>
       </c>
       <c r="K17" t="n">
         <v>208.2391653921411</v>
@@ -35895,7 +35895,7 @@
         <v>362.9816864949611</v>
       </c>
       <c r="N17" t="n">
-        <v>354.0753141672981</v>
+        <v>354.075314167298</v>
       </c>
       <c r="O17" t="n">
         <v>288.699200157541</v>
@@ -35904,7 +35904,7 @@
         <v>208.3431558125708</v>
       </c>
       <c r="Q17" t="n">
-        <v>78.45525581413835</v>
+        <v>78.45525581413834</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35977,13 +35977,13 @@
         <v>461.9742069321659</v>
       </c>
       <c r="O18" t="n">
-        <v>13.24203662721868</v>
+        <v>355.5296016677973</v>
       </c>
       <c r="P18" t="n">
-        <v>268.1690335460031</v>
+        <v>51.91529551858536</v>
       </c>
       <c r="Q18" t="n">
-        <v>126.033827013161</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>20.414356682936</v>
+        <v>20.41435668293599</v>
       </c>
       <c r="L19" t="n">
         <v>82.21065581690641</v>
       </c>
       <c r="M19" t="n">
-        <v>97.17367350625088</v>
+        <v>97.17367350625086</v>
       </c>
       <c r="N19" t="n">
         <v>100.3526122813372</v>
       </c>
       <c r="O19" t="n">
-        <v>76.51380370551979</v>
+        <v>76.51380370551978</v>
       </c>
       <c r="P19" t="n">
-        <v>41.71251236045889</v>
+        <v>41.71251236045888</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>40.65552550165464</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>182.5343441420912</v>
       </c>
       <c r="L21" t="n">
-        <v>327.4352990534029</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>434.6058141531524</v>
@@ -36217,10 +36217,10 @@
         <v>355.5296016677973</v>
       </c>
       <c r="P21" t="n">
-        <v>249.3019056478527</v>
+        <v>268.1690335460031</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>126.033827013161</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37165,10 +37165,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37873,13 +37873,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38113,10 +38113,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
